--- a/artifacts/recipes/new_data/allrecipescom/chineese/chineese_soups-and-stews.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/chineese/chineese_soups-and-stews.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699641129-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Chinese Soups and Stews</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699641138-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1Bqylp_bYzbkcj7PdCvZkbWOK6U=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(967x0:969x2):format(webp)/7184300-ce4c5cc50cc8427da543955850545ac5.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257222/simple-hot-and-sour-soup/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Simple Hot and Sour Soup</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ¾ ounces dried shiitake mushrooms\n\n\n1 ounce dried cloud ear mushrooms\n\n\n½ (12 ounce) package silken tofu, cut into 1/2-inch cubes\n\n\n1 (8 ounce) can bamboo shoots, cut into thin matchstick-size pieces\n\n\n2 teaspoons vinegar\n\n\n1 teaspoon ground white pepper\n\n\n10 fluid ounces chicken stock\n\n\n2 ounces cooked ham, thinly sliced\n\n\n1 teaspoon soy sauce\n\n\n1 teaspoon Shaoxing cooking wine\n\n\n  salt to taste\n\n\n2 teaspoons corn flour\n\n\n2 teaspoons water\n\n\n2  eggs, beaten\n\n\n1 teaspoon sesame oil"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ¾ ounces dried shiitake mushrooms\n\n\n1 ounce dried cloud ear mushrooms\n\n\n½ (12 ounce) package silken tofu, cut into 1/2-inch cubes\n\n\n1 (8 ounce) can bamboo shoots, cut into thin matchstick-size pieces\n\n\n2 teaspoons vinegar\n\n\n1 teaspoon ground white pepper\n\n\n10 fluid ounces chicken stock\n\n\n2 ounces cooked ham, thinly sliced\n\n\n1 teaspoon soy sauce\n\n\n1 teaspoon Shaoxing cooking wine\n\n\n  salt to taste\n\n\n2 teaspoons corn flour\n\n\n2 teaspoons water\n\n\n2  eggs, beaten\n\n\n1 teaspoon sesame oil'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place shiitake mushrooms and cloud ear mushrooms in a bowl of water; soak until softened, about 30 minutes. Drain and finely chop the mushrooms."},{"recipe_directions":"Bring a pot of water to a boil; add tofu and cook for 1 minute. Remove using a slotted spoon and place in a bowl. Bring water back to a boil and add bamboo shoots; cook for 1 minute. Drain and set bamboo shoots aside."},{"recipe_directions":"Mix vinegar and white pepper together in a bowl."},{"recipe_directions":"Bring chicken stock to a boil in a large saucepan. Add bamboo shoots, mushrooms, and ham; return to a boil. Add tofu, soy sauce, Shaoxing wine, and salt; bring back to a boil."},{"recipe_directions":"Mix corn flour and water together in a bowl until dissolved; stir into chicken stock mixture until soup starts to thicken. Drizzle beaten eggs into soup, stirring gently to form cooked egg clumps, 2 to 3 minutes."},{"recipe_directions":"Stir vinegar-pepper mixture into soup and drizzle in sesame oil."},{"recipe_directions":"Dried cloud ear mushrooms (also known as black wood fungus or wood ear), fresh bamboo shoots, dried shiitake mushrooms and Shaoxing wine can be purchased in Chinese specialty shops."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"185\nCalories\n\n\n8g \nFat\n\n\n19g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699641144-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vB_kEK_cacy_VeCJwXAyJ8cybho=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/213117-89c87aad41274225a38f7c4cab4e6e6f.jpg"
@@ -268,59 +605,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/171931/wonton-soup-without-ginger/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Wonton Soup without Ginger</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon white sugar\n\n\n1 teaspoon cornstarch\n\n\n1 tablespoon oyster sauce\n\n\n1 tablespoon sesame oil\n\n\n1 pound lean ground pork\n\n\n¼ pound diced raw shrimp\n\n\n1  green onion, chopped (Optional)\n\n\n40  wonton wrappers\n\n\n2  green onions (Optional)\n\n\n1  egg, beaten\n\n\n9 cups chicken stock\n\n\n¼ cup soy sauce\n\n\n2 tablespoons sesame oil\n\n\n2 cups chopped bok choy\n\n\n1 cup green onions, chopped (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon white sugar\n\n\n1 teaspoon cornstarch\n\n\n1 tablespoon oyster sauce\n\n\n1 tablespoon sesame oil\n\n\n1 pound lean ground pork\n\n\n¼ pound diced raw shrimp\n\n\n1  green onion, chopped (Optional)\n\n\n40  wonton wrappers\n\n\n2  green onions (Optional)\n\n\n1  egg, beaten\n\n\n9 cups chicken stock\n\n\n¼ cup soy sauce\n\n\n2 tablespoons sesame oil\n\n\n2 cups chopped bok choy\n\n\n1 cup green onions, chopped (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together sugar, cornstarch, oyster sauce, and 1 tablespoon sesame oil in a large bowl; add the ground pork, shrimp, and 1 chopped green onion and mix to combine."},{"recipe_directions":"Lay one wonton skin like a baseball diamond in front of you. Using your finger, brush beaten egg around the outer edge of the wonton skin. Place 1 tablespoon of pork mixture onto the middle of the wonton skin. Fold 'home run' corner to '2nd base' corner and press down creating a triangle. The meat filling lump is at the bottom of the triangle. Brush egg mixtures at the '1st base' and '3rd base' corners of the triangle. Fold each base corner over the meat filling lump and over each other. Brush egg mixture at the '2nd base/homerun' corner of the triangle and fold behind the meat filling lump. This is one wonton. Repeat until there are no more mixture or wrapper skins. Keep the wontons covered with a wet towel to prevent from drying.\""},{"recipe_directions":"Mix together the chicken stock, soy sauce, 2 tablespoons sesame oil, and 2 green onions in a pot over medium-high heat. Bring this to a boil; reduce heat to medium-low and simmer for 15 minutes. Add the bok choy and return to a boil until the bok choy is tender, about 5 minutes."},{"recipe_directions":"Bring a large pot of salted water to a boil; boil wontons for 3 to 5 minutes, stirring occasionally to prevent wontons from sticking to each other or to the edges of the pot."},{"recipe_directions":"Place wontons in a soup bowl and ladle soup over wontons to serve. Garnish with chopped green onions."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Seafood"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"326\nCalories\n\n\n15g \nFat\n\n\n28g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699641154-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/I_iybnFAUPpQsrH41QuGlVdSN0g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/4564673-a2f130ab70c3465fab7a071fc5833d38.jpg"
@@ -333,59 +666,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/138959/winter-melon-meatball-soup/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Winter Melon Meatball Soup</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound ground pork\n\n\n2 tablespoons cornstarch\n\n\n½ bunch cilantro leaves, finely chopped\n\n\n3 tablespoons soy sauce\n\n\n2 tablespoons white sugar\n\n\n2 tablespoons minced garlic\n\n\n2 tablespoons minced fresh ginger\n\n\n2  eggs\n\n\n6 cups water\n\n\n2 pounds Chinese winter melon (dong gua), cut into 1 inch cubes\n\n\n3 slices fresh ginger\n\n\n1 tablespoon salt\n\n\n1 tablespoon white sugar"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound ground pork\n\n\n2 tablespoons cornstarch\n\n\n½ bunch cilantro leaves, finely chopped\n\n\n3 tablespoons soy sauce\n\n\n2 tablespoons white sugar\n\n\n2 tablespoons minced garlic\n\n\n2 tablespoons minced fresh ginger\n\n\n2  eggs\n\n\n6 cups water\n\n\n2 pounds Chinese winter melon (dong gua), cut into 1 inch cubes\n\n\n3 slices fresh ginger\n\n\n1 tablespoon salt\n\n\n1 tablespoon white sugar'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Sprinkle pork with cornstarch, cilantro, soy sauce, sugar, garlic, and ginger. Mix eggs into pork until completely incorporated and the mixture becomes sticky."},{"recipe_directions":"Combine water, winter melon, ginger, salt, and sugar in a large saucepan. Bring to a boil over high heat, then reduce heat to medium, and simmer for 5 minutes. Meanwhile, form 1 teaspoon-sized meatballs out of the pork mixture. Gently drop meatballs into simmering soup; simmer 8 to 10 minutes more until meatballs have cooked."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Pork Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"173\nCalories\n\n\n11g \nFat\n\n\n9g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699641163-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WD5AwDNjgXrrH1qw-UEvu-b9lmM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/6237635-343fb100c7ec4e37af7ff778d812eb34.jpg"
@@ -398,59 +727,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/12920/chinese-egg-soup/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Chinese Egg Soup</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n2 mins\n\n\nCook Time:\n13 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups seasoned chicken broth\n\n\n½ cup frozen green peas\n\n\n1  egg, beaten"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups seasoned chicken broth\n\n\n½ cup frozen green peas\n\n\n1  egg, beaten'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring chicken broth and peas to a boil in a large saucepan."},{"recipe_directions":"Slowly add egg to the boiling broth, stirring constantly. Serve hot, garnished with chopped green onions."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"35\nCalories\n\n\n2g \nFat\n\n\n3g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699641168-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XJb0FludSXkFWK1xG56eZrVIZuo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/788113-cf71917815a146e7a3568c2c9d7d0d7e.jpg"
@@ -463,59 +788,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/105409/pork-and-century-egg-rice-congee/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Pork and Century Egg Rice Congee</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 3 hrs\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 3 hrs 30 mins\n\n\nServings:\n8 \n\n\nYield:\n8 cups"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup uncooked short-grain white rice\n\n\n1 tablespoon vegetable oil\n\n\n6 cups water\n\n\n1 cube pork bouillon cube\n\n\n2 cups char siu (Chinese roast pork), diced\n\n\n6  green onions, chopped\n\n\n2 cups water\n\n\n2  preserved duck eggs (century eggs), peeled and diced"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup uncooked short-grain white rice\n\n\n1 tablespoon vegetable oil\n\n\n6 cups water\n\n\n1 cube pork bouillon cube\n\n\n2 cups char siu (Chinese roast pork), diced\n\n\n6  green onions, chopped\n\n\n2 cups water\n\n\n2  preserved duck eggs (century eggs), peeled and diced'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Rinse the rice in several changes of cold water. Drain completely in a mesh strainer and place into a large pot. Stir the vegetable oil into the rice and set aside for 10 minutes."},{"recipe_directions":"Stir 6 cups of water, the bouillon cube, char siu, and green onion into the rice. Bring to a boil over high heat; reduce heat to medium-low, cover, and simmer 1 1/2 hours. Stir frequently as the rice cooks to help break the rice grains apart and keep it from burning on the bottom."},{"recipe_directions":"Stir in the remaining 2 cups of water and the century egg. Continue cooking another 1 1/2 hours, stirring frequently until the congee reaches your desired consistency. The congee is ready when the individual grains of rice are no longer discernable and have thickened the soup."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"175\nCalories\n\n\n5g \nFat\n\n\n16g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699641177-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6EsGzWbTZ7GMfmpm3ugd62PKmxU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2918090-a3902b46d7ad443c8f4fb07c914e1690.jpg"
@@ -528,59 +849,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13343/egg-drop-soup-ii/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Egg Drop Soup II</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (14.5 ounce) cans chicken broth\n\n\n1 tablespoon cornstarch\n\n\n1  egg, lightly beaten\n\n\n2 tablespoons chopped green onion"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (14.5 ounce) cans chicken broth\n\n\n1 tablespoon cornstarch\n\n\n1  egg, lightly beaten\n\n\n2 tablespoons chopped green onion'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium stock pot, mix cold chicken broth with cornstarch. Slowly heat over medium heat, stirring frequently."},{"recipe_directions":"Pour beaten egg into soup, and stir once around stock pot very gently, in order to break up egg. Remove soup from heat immediately, divide into four portions and garnish with green onions."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"27\nCalories\n\n\n1g \nFat\n\n\n2g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699641188-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XoaHb_wftN_Xdf807NprTlZ_KBY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/KH_091622_AR5256-1x1-2-62f3258ebf72493dba495ad9c348e81a.jpg"
@@ -592,59 +909,55 @@
 Chinese Hand-Pulled Noodles in Beef Broth</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/280980/chinese-hand-pulled-noodles-in-beef-broth/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Chinese Hand-Pulled Noodles in Beef Broth</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 2 hrs 45 mins\n\n\nAdditional Time:\n40 mins\n\n\nTotal Time:\n 3 hrs 55 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 gallon water\n\n\n2 pounds boneless beef shoulder, cubed\n\n\n¼ cup sliced fresh ginger\n\n\n2 tablespoons Szechuan peppercorns\n\n\n  2 dried tsaoko\n\n\n2 pieces dried mandarin orange peel\n\n\n4  bay leaves\n\n\n2 tablespoons salt, or to taste"},{"recipe_ingredients":"8 cups all-purpose flour\n\n\n2 ½ cups water\n\n\n¼ cup vegetable oil"},{"recipe_ingredients":"1 pound daikon (white radish), peeled and sliced\n\n\n3  stalks green garlic, chopped\n\n\n1 bunch fresh cilantro, chopped\n\n\n8 drops chili oil, or to taste (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 gallon water\n\n\n2 pounds boneless beef shoulder, cubed\n\n\n¼ cup sliced fresh ginger\n\n\n2 tablespoons Szechuan peppercorns\n\n\n  2 dried tsaoko\n\n\n2 pieces dried mandarin orange peel\n\n\n4  bay leaves\n\n\n2 tablespoons salt, or to taste'}, {'recipe_ingredients': '8 cups all-purpose flour\n\n\n2 ½ cups water\n\n\n¼ cup vegetable oil'}, {'recipe_ingredients': '1 pound daikon (white radish), peeled and sliced\n\n\n3  stalks green garlic, chopped\n\n\n1 bunch fresh cilantro, chopped\n\n\n8 drops chili oil, or to taste (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water to a boil in a large pot. Add beef, ginger, Szechuan peppercorns, dried tsaoko, dried mandarin peels, and bay leaves; bring soup back to a boil, reduce to a simmer and cook, covered, for 2 hours."},{"recipe_directions":"Discard whole spices. Season beef broth with salt to taste. Cover and keep warm."},{"recipe_directions":"Place flour in a large bowl and gradually mix in water. Mix until dough comes together; knead until smooth, 15 to 20 minutes. Cover with plastic wrap and let rest for 15 minutes."},{"recipe_directions":"Knead dough again for 2 minutes; cover and let rest for 15 minutes."},{"recipe_directions":"Knead dough one more time for 2 minutes. Divide into 4 equal pieces. Roll each piece into a 3/8-inch-thick sheet. Brush both sides of each sheet with oil. Stack sheets together; cover with plastic wrap and let rest for 10 to 15 minutes."},{"recipe_directions":"Fill a large saucepan with water and bring to a boil. Add sliced daikon and cook for 10 to 15 minutes. Remove using a slotted spoon and drain well; set aside. Save water to cook the noodles."},{"recipe_directions":"Place 1 sheet of dough on a cutting board and slice into 1/8-inch-wide strips. Take one end of a strip in each hand and stretch it until it is 30 to 35 inches long. Fold it into thirds and stretch again to the same length; shake and slap against the counter several times to lengthen it to 2 to 3 yards. Drop it into the boiling water. Add 2 to 3 more strips of noodles to the boiling water; cook until tender, 5 to 10 minutes. Transfer drained noodles to a serving bowl."},{"recipe_directions":"Repeat the process with the remaining sheets of dough. Pour beef broth on top of the drained noodles and top with cooked beef, daikon, chopped green garlic, cilantro, and chili oil."},{"recipe_directions":"This recipe appeared in Allrecipes Magazine and was modified to include star anise and cinnamon in the broth. Please note differences in total time when following the magazine version of this recipe."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"671\nCalories\n\n\n15g \nFat\n\n\n101g \nCarbs\n\n\n29g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699641196-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/G6rBk518jkO-6g6ArAKB0h3J5_4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2303x0:2305x2):format(webp)/4536195-5e8727563bf74a2b9833081a75481496.jpg"
@@ -657,59 +970,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/255081/grandmas-chinese-vegetable-soup/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Grandma's Chinese Vegetable Soup</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr 40 mins\n\n\nTotal Time:\n 2 hrs\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound pork neck bones\n\n\n10 cups water\n\n\n2 large potatoes, cut into chunks\n\n\n2 large tomatoes, quartered\n\n\n1  onion, quartered\n\n\n1 large carrot, sliced\n\n\n1 teaspoon white sugar\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound pork neck bones\n\n\n10 cups water\n\n\n2 large potatoes, cut into chunks\n\n\n2 large tomatoes, quartered\n\n\n1  onion, quartered\n\n\n1 large carrot, sliced\n\n\n1 teaspoon white sugar\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place pork neck bones into a large pot; cover with water. Bring to a boil and skim scum off the surface with a slotted spoon. Drain."},{"recipe_directions":"Return bones to the pot. Add 10 cups water, potatoes, tomatoes, onion, and carrot. Bring to a boil. Reduce heat to low and simmer soup until flavors combine, 1 1/2 to 2 hours. Season with sugar and salt."},{"recipe_directions":"Substitute rib bones for the pork neck bones."},{"recipe_directions":"Fish sauce may also be used for extra flavor."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"209\nCalories\n\n\n6g \nFat\n\n\n21g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699641204-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/HFlPIHsrxUXgAwu7mtrNgYrdhBI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2303x0:2305x2):format(webp)/4640396-23008ffa5dac4ce5bfb8b50f45084a4e.jpg"
@@ -722,59 +1031,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/233736/chinese-tomato-and-egg-soup/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Chinese Tomato and Egg Soup</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n17 mins\n\n\nTotal Time:\n27 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon vegetable oil\n\n\n2 large ripe tomatoes, quartered\n\n\n2 cups water, or more as needed\n\n\n2  eggs\n\n\n2 tablespoons minced green onion\n\n\n½ teaspoon sesame oil (Optional)\n\n\n1 pinch white sugar, or to taste\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon vegetable oil\n\n\n2 large ripe tomatoes, quartered\n\n\n2 cups water, or more as needed\n\n\n2  eggs\n\n\n2 tablespoons minced green onion\n\n\n½ teaspoon sesame oil (Optional)\n\n\n1 pinch white sugar, or to taste\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a pot over medium-high heat. Add tomatoes; saute until mostly melted, 5 to 10 minutes. Add water; bring to a boil. Reduce heat to low; cook, stirring occasionally, until flavors are well blended, 5 to 10 minutes. Add eggs, stirring slowly and constantly for 1 minute. Add green onion; cook for 30 seconds. Stir in sesame oil, sugar, and salt."},{"recipe_directions":"Make sure the tomato melts, and don't let the eggs agglomerate."},{"recipe_directions":"Tofu may be substituted for eggs for a vegan version."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"},{"recipe_tags":"Tomato Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"179\nCalories\n\n\n13g \nFat\n\n\n9g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699641210-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Mq3I4-k1GMIReMQZ3JosZP7JYoo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(539x0:541x2):format(webp)/9205505-7ddce32314414be39e9a4a55a4db5f04.jpg"
@@ -787,59 +1092,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/245128/spicy-tan-tan-soup-tantanmen-or-dan-dan-noodles/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Spicy Tan Tan Soup (Tantanmen or Dan Dan Noodles)</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n2 bowls"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon sesame oil\n\n\n2 teaspoons doubanjiang (soy bean paste)\n\n\n1 tablespoon minced shallots\n\n\n1 clove garlic, pressed\n\n\n1 ½ teaspoons grated fresh ginger \n\n\n6 ounces ground pork\n\n\n¼ cup soy sauce\n\n\n2 tablespoons tahini (sesame seed paste)\n\n\n1 tablespoon sake\n\n\n1 tablespoon miso paste\n\n\n1 teaspoon tianmianjiang (sweet bean paste)\n\n\n4 cups chicken stock\n\n\n2 teaspoons rice vinegar\n\n\n1 teaspoon rayu (chile oil)\n\n\n½ cup fresh spinach, or to taste (Optional)\n\n\n2 cups ramen noodles, or to taste\n\n\n3  green onions, thinly sliced\n\n\n1  red Thai chile pepper, sliced"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon sesame oil\n\n\n2 teaspoons doubanjiang (soy bean paste)\n\n\n1 tablespoon minced shallots\n\n\n1 clove garlic, pressed\n\n\n1 ½ teaspoons grated fresh ginger \n\n\n6 ounces ground pork\n\n\n¼ cup soy sauce\n\n\n2 tablespoons tahini (sesame seed paste)\n\n\n1 tablespoon sake\n\n\n1 tablespoon miso paste\n\n\n1 teaspoon tianmianjiang (sweet bean paste)\n\n\n4 cups chicken stock\n\n\n2 teaspoons rice vinegar\n\n\n1 teaspoon rayu (chile oil)\n\n\n½ cup fresh spinach, or to taste (Optional)\n\n\n2 cups ramen noodles, or to taste\n\n\n3  green onions, thinly sliced\n\n\n1  red Thai chile pepper, sliced'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat sesame oil in a skillet over medium heat; add doubanjiang. Cook and stir shallots, garlic, and ginger until fragrant, about 30 seconds. Add ground pork; cook and stir until browned, about 3 minutes."},{"recipe_directions":"Mix soy sauce, tahini, sake, miso paste, and tianmianjiang into pork mixture until evenly combined. Add chicken stock; bring to a boil. Mix rice vinegar and rayu into pork mixture; add spinach. Simmer soup over low heat for 10 minutes."},{"recipe_directions":"Put noodles in a bowl of hot water to separate; drain. Mix noodles into soup and garnish with green onions and Thai chile peppers."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Noodle Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"561\nCalories\n\n\n33g \nFat\n\n\n36g \nCarbs\n\n\n28g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699641217-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LVFYzw_1gczztg3chNsSUO8HEuU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1907520-3dff8fad88364b0689282a2c5ea91761.jpg"
@@ -852,59 +1153,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/213472/he-jia-tuan-yuan-tofu-ball-soup-for-lunar-chinese-new-year/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>He Jia Tuan Yuan (Tofu Ball Soup for Lunar Chinese New Year)</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n5 \n\n\nYield:\n5 servings"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (14 ounce) package soft tofu\n\n\n7 ounces ground pork\n\n\n6 tablespoons cornstarch\n\n\n1  egg\n\n\n1 teaspoon chicken bouillon granules (Optional)\n\n\n1 teaspoon salt\n\n\n5 cups water\n\n\n1 tablespoon vegetable oil\n\n\n10  dried shrimp\n\n\n1 cup fresh pea vine shoots, trimmed\n\n\n1 teaspoon chicken bouillon granules (Optional)\n\n\n¼ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (14 ounce) package soft tofu\n\n\n7 ounces ground pork\n\n\n6 tablespoons cornstarch\n\n\n1  egg\n\n\n1 teaspoon chicken bouillon granules (Optional)\n\n\n1 teaspoon salt\n\n\n5 cups water\n\n\n1 tablespoon vegetable oil\n\n\n10  dried shrimp\n\n\n1 cup fresh pea vine shoots, trimmed\n\n\n1 teaspoon chicken bouillon granules (Optional)\n\n\n¼ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the tofu into a large bowl, and mash it into a paste with a large spoon. Stir in the pork, cornstarch, egg, 1 teaspoon chicken bouillon granules, and 1 teaspoon salt until the mixture is very well combined."},{"recipe_directions":"Heat the water and vegetable oil to a boil in a large saucepan, and reduce heat to an active simmer but not a full boil. Using gloved hands, pinch off about 1 tablespoon of the tofu mixture, roll it into a ball between your palms, and slide it carefully into the water so it doesn't break apart. Repeat with the rest of the tofu mixture. Without stirring the soup, let the tofu balls simmer until they rise to the top, about 30 minutes."},{"recipe_directions":"Turn off the heat, and stir in the dried shrimp, pea vine shoots, 1 teaspoon of chicken bouillon granules, and 1/4 teaspoon salt. Serve hot."},{"recipe_directions":"You may substitute some of the water with chicken stock."},{"recipe_directions":"Snow pea shoots have a unique aroma, and they make the soup taste refreshing."},{"recipe_directions":"Good choices for substitutions for snow pea shoots: watercress (highly recommended substitution), cilantro, Taiwan lettuce, spinach."},{"recipe_directions":"To make good tofu balls, the tofu to meat ratio should be 2:1 (If you are meat lover, you can use a 1:1 ratio). The tofu and cornstarch ratio should be 6:1."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"239\nCalories\n\n\n15g \nFat\n\n\n12g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699641223-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gZu3j-oU9zuPg9QODif5rR6u4nw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5148304-e0baf5a9ef4146ec99dbdd69b1102b71.jpg"
@@ -917,59 +1214,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/97058/chinese-shrimp-and-tofu-soup/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Chinese Shrimp and Tofu Soup</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon vegetable oil\n\n\n2 cloves garlic, minced\n\n\n1 (1/2-inch) piece fresh ginger root, minced\n\n\n6 ounces raw small shrimp, shelled and deveined\n\n\n1 quart chicken stock\n\n\n8 ounces tofu, diced small\n\n\n⅓ cup frozen peas, thawed\n\n\n1 teaspoon salt\n\n\n½ teaspoon black pepper\n\n\n1 tablespoon cornstarch"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon vegetable oil\n\n\n2 cloves garlic, minced\n\n\n1 (1/2-inch) piece fresh ginger root, minced\n\n\n6 ounces raw small shrimp, shelled and deveined\n\n\n1 quart chicken stock\n\n\n8 ounces tofu, diced small\n\n\n⅓ cup frozen peas, thawed\n\n\n1 teaspoon salt\n\n\n½ teaspoon black pepper\n\n\n1 tablespoon cornstarch'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large saucepan or wok over high heat. Cook garlic and ginger until fragrant and lightly browned. Stir in shrimp and stir fry until cooked, then remove and set aside. Pour in chicken stock and bring to a boil. Reduce heat to medium. Add tofu and peas, season with salt and pepper, then return to a simmer. Mix cornstarch with a little water to form a thin paste. Stir cornstarch into soup and continue to simmer until clear and thickened, about 1 minute. Stir shrimp back into soup and serve."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Seafood"},{"recipe_tags":"Shrimp Soup"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"99\nCalories\n\n\n5g \nFat\n\n\n5g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699641229-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/EMOOqey1cOv6iQpxJyWdPRcYUdE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/848060-81dcc3bcaa7848dea732206abf1e966a.jpg"
@@ -982,59 +1275,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223144/wonton-soup-with-a-kick/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Wonton Soup With A Kick</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 cups chicken broth\n\n\n3 tablespoons soy sauce\n\n\n2 teaspoons sesame oil\n\n\n2 teaspoons rice wine vinegar\n\n\n2 teaspoons lemon juice\n\n\n2 teaspoons minced garlic\n\n\n1 ½ teaspoons chile-garlic sauce (such as Sriracha®)\n\n\n  salt to taste\n\n\n8 cups water\n\n\n20  wontons"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 cups chicken broth\n\n\n3 tablespoons soy sauce\n\n\n2 teaspoons sesame oil\n\n\n2 teaspoons rice wine vinegar\n\n\n2 teaspoons lemon juice\n\n\n2 teaspoons minced garlic\n\n\n1 ½ teaspoons chile-garlic sauce (such as Sriracha®)\n\n\n  salt to taste\n\n\n8 cups water\n\n\n20  wontons'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine chicken broth, soy sauce, sesame oil, rice wine vinegar, lemon juice, garlic, chile-garlic sauce, and salt in a large pot over medium heat; bring to a simmer and cook until hot, about 10 minutes."},{"recipe_directions":"While the broth simmers, bring water to a boil in a separate pot. Cook wontons in boiling water until heated through, about 5 minutes. Remove from water with a slotted spoon and add to the soup."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"293\nCalories\n\n\n9g \nFat\n\n\n34g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699641235-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/YldoB_M3LCucWu-1Wzl1xFSjmQQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/5288226-1212368463a24f44b4e48e9bfd8454b1.jpg"
@@ -1047,59 +1336,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/247028/pork-and-bamboo-shoot-soup-with-cloud-ear/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Pork and Bamboo Shoot Soup with Cloud Ear</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n23 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n48 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  small dried cloud ear mushrooms\n\n\n1 ½ cups water\n\n\n4 ounces pork fillet, thinly sliced\n\n\n4 ounces canned bamboo shoots, drained and chopped\n\n\n2 tablespoons white sugar\n\n\n2 tablespoons sake (Japanese rice wine)\n\n\n2 tablespoons soy sauce\n\n\n2 tablespoons black rice vinegar\n\n\n1 teaspoon chile paste\n\n\n3  eggs\n\n\n1 ½ teaspoons sesame oil"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  small dried cloud ear mushrooms\n\n\n1 ½ cups water\n\n\n4 ounces pork fillet, thinly sliced\n\n\n4 ounces canned bamboo shoots, drained and chopped\n\n\n2 tablespoons white sugar\n\n\n2 tablespoons sake (Japanese rice wine)\n\n\n2 tablespoons soy sauce\n\n\n2 tablespoons black rice vinegar\n\n\n1 teaspoon chile paste\n\n\n3  eggs\n\n\n1 ½ teaspoons sesame oil'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place mushrooms in a small bowl and cover with water. Let soak until softened, about 15 minutes. Drain and cut into bite-size pieces."},{"recipe_directions":"Bring 1 1/2 cup water to a boil in a pot. Add pork and bamboo shots. Cook, skimming off any fat that rises to the top, until pork is tender, 5 to 10 minutes."},{"recipe_directions":"Mix sugar, sake, soy sauce, black rice vinegar, and chile paste together in a small bowl. Stir into the pot. Reduce heat to low and simmer soup, covered, about 10 minutes."},{"recipe_directions":"Stir mushroom pieces into the soup. Crack in eggs and cook, covered, until whites are firm and the yolks have thickened but are not hard, 2 1/2 to 3 minutes. Drizzle sesame oil over soup before serving."},{"recipe_directions":"Substitute balsamic vinegar for the black rice vinegar if desired."},{"recipe_directions":"You can beat the eggs and pour them into the pot instead of adding them whole."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Pork Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"323\nCalories\n\n\n15g \nFat\n\n\n24g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699641242-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tb0yxPYcCOYrADGqU-eIOntVRBc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7812159-3b657f5f43da42209fd88bc611503718.jpg"
@@ -1112,59 +1397,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257581/taiwanese-spicy-beef-noodle-soup/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Taiwanese Spicy Beef Noodle Soup</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n 8 hrs 15 mins\n\n\nTotal Time:\n 8 hrs 40 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds beef stew meat, cut into 1-inch cubes\n\n\n3 tablespoons vegetable oil, or more as needed\n\n\n8 cups water, or more as needed\n\n\n1 (14 ounce) can beef broth\n\n\n1 bunch green onions, cut into 2-inch pieces\n\n\n1 cup soy sauce\n\n\n½ cup rice wine\n\n\n¼ cup brown sugar\n\n\n10 cloves garlic, peeled, or more to taste\n\n\n4  small chile peppers, halved and seeded, or more to taste\n\n\n2 tablespoons chile paste, or to taste\n\n\n1 (1 1/2 inch) piece fresh ginger, peeled and cut into 5 pieces\n\n\n3  star anise pods, or more to taste\n\n\n1 teaspoon five-spice powder\n\n\n4 small heads baby bok choy \n\n\n1 (10 ounce) package udon noodles\n\n\n1 tablespoon chopped pickled mustard greens, or to taste (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds beef stew meat, cut into 1-inch cubes\n\n\n3 tablespoons vegetable oil, or more as needed\n\n\n8 cups water, or more as needed\n\n\n1 (14 ounce) can beef broth\n\n\n1 bunch green onions, cut into 2-inch pieces\n\n\n1 cup soy sauce\n\n\n½ cup rice wine\n\n\n¼ cup brown sugar\n\n\n10 cloves garlic, peeled, or more to taste\n\n\n4  small chile peppers, halved and seeded, or more to taste\n\n\n2 tablespoons chile paste, or to taste\n\n\n1 (1 1/2 inch) piece fresh ginger, peeled and cut into 5 pieces\n\n\n3  star anise pods, or more to taste\n\n\n1 teaspoon five-spice powder\n\n\n4 small heads baby bok choy \n\n\n1 (10 ounce) package udon noodles\n\n\n1 tablespoon chopped pickled mustard greens, or to taste (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place beef in a stockpot and cover with water; bring to a boil. Remove from the heat and drain."},{"recipe_directions":"Pour vegetable oil into a slow cooker; add beef, 8 cups water, broth, green onions, soy sauce, rice wine, brown sugar, garlic, chile peppers, chile paste, ginger, star anise, and five-spice powder. Cover and cook on Low for 8 to 9 hours."},{"recipe_directions":"Transfer beef to a bowl with a slotted spoon. Strain broth into a bowl; discard solids. Return broth to the slow cooker; keep on Warm until needed."},{"recipe_directions":"Bring a pot of water to a boil; add bok choy and cook for 30 seconds. Remove with a slotted spoon and run under cold water. Drain, then roughly chop."},{"recipe_directions":"Add udon noodles to boiling water; cook until tender yet firm to the bite, about 4 minutes. Drain."},{"recipe_directions":"Divide noodles among serving bowls and top with beef, bok choy, and hot broth. Garnish with mustard greens."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Noodle Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"482\nCalories\n\n\n22g \nFat\n\n\n42g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699641249-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/C0d99GhpMKM-jvMoi6wtVrfrTA4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1778584-long-soup-cookiecat-4x3-1-e4717bdfbe2f446aadae6469259308cc.jpg"
@@ -1178,59 +1459,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13393/long-soup/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Long Soup</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ tablespoons vegetable oil\n\n\n¼ small head cabbage, shredded\n\n\n4 ounces lean pork tenderloin, cut into thin strips\n\n\n½ teaspoon minced fresh ginger root\n\n\n6 cups chicken broth\n\n\n2 tablespoons soy sauce\n\n\n8  fresh green onions, chopped\n\n\n4 ounces dry Chinese egg noodles"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ tablespoons vegetable oil\n\n\n¼ small head cabbage, shredded\n\n\n4 ounces lean pork tenderloin, cut into thin strips\n\n\n½ teaspoon minced fresh ginger root\n\n\n6 cups chicken broth\n\n\n2 tablespoons soy sauce\n\n\n8  fresh green onions, chopped\n\n\n4 ounces dry Chinese egg noodles'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large skillet or wok over medium-high heat. Add cabbage and pork; stir-fry until pork is no longer pink inside, about 5 minutes. Stir in ginger."},{"recipe_directions":"Add chicken broth and soy sauce to the skillet; bring to a boil. Reduce heat to low; simmer for 10 minutes, stirring occasionally."},{"recipe_directions":"Stir in onions and add noodles. Cook until noodles are tender, 2 to 4 minutes more."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"256\nCalories\n\n\n9g \nFat\n\n\n28g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699641256-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/E6FnJhocFyNJUxlHgK9rXNbdtlg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(324x0:326x2):format(webp)/fileB7w3F1-72f174ad681b4b9fa8b6b9094371056b.jpg"
@@ -1242,59 +1519,55 @@
 7 Gluten-Free Slow-Cooker Dinners</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/article/gluten-free-slow-cooker-dinners/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>7 Gluten-Free Slow-Cooker Dinners</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Oh, slow cooker, you make life so much easier for us! But for those of us who need slow cooker deliciousness to also be gluten-free, that ease can be a little harder to come by. Or is it? Many beef-and-potato stew recipes are naturally gluten-free. But many recipes that seem gluten-free may contain some foods you'd never think would contain gluten (hello, soy sauce!). These seven top-rated, wildly delicious, gluten-free slow-cooker dinners appeal to gluten fiends and gluten-frees alike. Enjoy!"},{"recipe_directions":"1. Slow Cooker Spanish Beef Stew"},{"recipe_directions":"Jen79 gave this recipe by Moefunk04 five stars, and added a couple of tweaks of her own: \"I cooked this for four hours on low and then one and a half on high. My husband and I really enjoyed it.\""},{"recipe_directions":"Get the Recipe: Slow Cooker Spanish Beef Stew"},{"recipe_directions":"2. Charley's Slow Cooker Mexican-Style Meat"},{"recipe_directions":"Recipe creator CHARLEY357 says, \"This recipe can be used with chicken, beef, pork and even venison. It freezes well, and can be made into burritos or tacos.\" So, just get yourself some corn tortillas and some Mexican food fixins, and you're in business!"},{"recipe_directions":"Get the Recipe: Charley's Slow Cooker Mexican-Style Meat"},{"recipe_directions":"3. Slow Cooker Chicken Tortilla Soup"},{"recipe_directions":"\"This was a hit!\" says Betsy of this recipe by Elena. \"Super easy and very tasty. I threw in a couple of frozen chicken breasts rather than cooking them first and saved myself a step. (I shredded them towards the end.)\""},{"recipe_directions":"Get the Recipe: Slow Cooker Chicken Tortilla Soup"},{"recipe_directions":"4. Slow Cooker Pepper Steak"},{"recipe_directions":"\"This was easy and delicious!\" Says TRACI8878 of this recipe by MJWAGNER68. \"I added a couple of cloves of chopped garlic and a few dashes of Worcestershire sauce.\" Many reviewers also recommend adding the peppers at the end if you like them crisper. Make sure you substitute Tamari, gluten-free soy sauce, in place of the regular soy sauce this recipe calls for."},{"recipe_directions":"Get the Recipe: Slow Cooker Pepper Steak"},{"recipe_directions":"5. Slow Cooker Lemon Garlic Chicken II"},{"recipe_directions":"\"A wonderful 'fix and forget' recipe that is easy and pleases just about everyone,\" says recipe creator Carla Joy. She suggests serving it \"with rice or pasta, or even alone.\" Gluten-free tip: There are so many delicious gluten-free pasta options these days, so don't count out that pasta option just yet. You can always serve this over rice, though."},{"recipe_directions":"Get the Recipe: Slow Cooker Lemon Garlic Chicken II"},{"recipe_directions":"6. Pork Chalupas"},{"recipe_directions":"\"Delicious!\" says Athena of this recipe by Stefani Ferguson. \"The only thing I did differently was toss the raw beef in adobo saffron spices before browning it. Otherwise I followed the recipe to a tee. Definitely a new family favorite! Even my 2 year old loves it!\" IMPORTANT NOTE: To go fully gluten-free, be sure to use corn tortillas rather than the flour ones the recipe calls for."},{"recipe_directions":"Get the Recipe: Pork Chalupas"},{"recipe_directions":"7. Slow Cooker Mongolian Beef"},{"recipe_directions":"Use Tamari gluten-free soy sauce instead of regular soy sauce, and you'll have a meal that \"tastes like you got it at a Chinese restaurant,\" says recipe creator, leith123. Serve this over rice or rice noodles."},{"recipe_directions":"Get the Recipe: Slow Cooker Mongolian Beef"},{"recipe_directions":"More Gluten-Free Goodness:"},{"recipe_directions":"Breakfast of Champions: Gluten-Free Pancakes"},{"recipe_directions":"Tasty Flourless Peanut Butter Cookies"},{"recipe_directions":"The Epic Allrecipes Library of 1,300 Gluten-Free Recipes"}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Kitchen Tips"},{"recipe_tags":"How To"},{"recipe_tags":"Dinner Fix"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699641266-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-KJFlkImNvNEkJGLVPJcLmZBs5Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/5027542-a47850a1f9234de59ba5b999bd6a34ab.jpg"
@@ -1307,59 +1580,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261389/chinese-chicken-soup-with-bok-choy/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Chinese Chicken Soup with Bok Choy</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n26 mins\n\n\nTotal Time:\n41 mins\n\n\nServings:\n4 \n\n\nYield:\n6 cups"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 cups chicken broth\n\n\n1 bunch green onions, sliced\n\n\n4 cups chopped bok choy\n\n\n¼ cup soy sauce\n\n\n1 small carrot, cut into 1/4-inch dice\n\n\n1 small stalk celery, cut into 1/4-inch dice\n\n\n2 tablespoons ginger root, peeled and minced\n\n\n1 tablespoon creamy peanut butter\n\n\n2 teaspoons sriracha sauce\n\n\n3 cloves garlic, minced\n\n\n1 teaspoon white sugar\n\n\n1 cup chopped cooked chicken \n\n\n1 (12 ounce) package ramen noodles"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 cups chicken broth\n\n\n1 bunch green onions, sliced\n\n\n4 cups chopped bok choy\n\n\n¼ cup soy sauce\n\n\n1 small carrot, cut into 1/4-inch dice\n\n\n1 small stalk celery, cut into 1/4-inch dice\n\n\n2 tablespoons ginger root, peeled and minced\n\n\n1 tablespoon creamy peanut butter\n\n\n2 teaspoons sriracha sauce\n\n\n3 cloves garlic, minced\n\n\n1 teaspoon white sugar\n\n\n1 cup chopped cooked chicken \n\n\n1 (12 ounce) package ramen noodles'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat chicken broth in a stock pot over medium heat until boiling. Add green onions; reduce heat and simmer until flavors are released, 1 to 2 minutes. Add bok choy, soy sauce, carrot, celery, ginger, peanut butter, sriracha, garlic, and sugar. Simmer until vegetables are tender, about 10 minutes."},{"recipe_directions":"Fill a large pot with lightly salted water and bring to a rolling boil; stir in ramen and return to a boil. Cook, uncovered, stirring occasionally, until the ramen is tender yet firm to the bite, 2 to 5 minutes. Drain. Portion noodles into serving bowls."},{"recipe_directions":"Place chicken into the pot of broth. Simmer until chicken is heated through, about 4 minutes. Pour soup over the noodles."},{"recipe_directions":"Sesame oil can be substituted for the peanut butter."},{"recipe_directions":"Use any kind of Asian-style noodles."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Noodle Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"225\nCalories\n\n\n8g \nFat\n\n\n21g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699641273-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nRfo0v4txoKtuDzcEcuhpYzG2xI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/774197-70ea702e4cb94f4a97e1e81062db03c1.jpg"
@@ -1372,59 +1641,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/199091/one-egg-egg-drop-soup/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>One-Egg Egg Drop Soup</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  egg\n\n\n¼ teaspoon salt\n\n\n2 tablespoons tapioca flour\n\n\n¼ cup cold water\n\n\n4 cups chicken broth\n\n\n⅛ teaspoon ground ginger\n\n\n⅛ teaspoon minced fresh garlic\n\n\n2 tablespoons chopped green onion\n\n\n¼ teaspoon Asian (toasted) sesame oil (Optional)\n\n\n1 pinch white pepper (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  egg\n\n\n¼ teaspoon salt\n\n\n2 tablespoons tapioca flour\n\n\n¼ cup cold water\n\n\n4 cups chicken broth\n\n\n⅛ teaspoon ground ginger\n\n\n⅛ teaspoon minced fresh garlic\n\n\n2 tablespoons chopped green onion\n\n\n¼ teaspoon Asian (toasted) sesame oil (Optional)\n\n\n1 pinch white pepper (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Beat the egg and salt together in a bowl until well mixed. In a separate bowl, combine the tapioca flour with the cold water and stir to dissolve."},{"recipe_directions":"Bring the chicken broth, ginger, and garlic to a full rolling boil, remove from the heat, and stir in the dissolved tapioca starch. Boil until the soup has thickened and is no longer cloudy, about 1 minute; remove from the heat. Pour the egg into the soup in a thin line, and gently stir the egg in a figure 8 shape, making sure not to overmix the egg too much. Sprinkle the soup with the chopped onions, sesame oil, and white pepper, and serve."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"51\nCalories\n\n\n2g \nFat\n\n\n5g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699641279-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DnptFgp0uBXp41lPttBRaprPLOE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1060539-daf31215d6fa41468d1a26e8378cfc8b.jpg"
@@ -1437,59 +1702,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/107126/whitneys-egg-flower-soup/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Whitney's Egg Flower Soup</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups chicken broth\n\n\n  white pepper to taste\n\n\n2 dashes sesame oil\n\n\n1  egg, beaten\n\n\n2 tablespoons peas\n\n\n1  green onion, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups chicken broth\n\n\n  white pepper to taste\n\n\n2 dashes sesame oil\n\n\n1  egg, beaten\n\n\n2 tablespoons peas\n\n\n1  green onion, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring the chicken broth, white pepper, and sesame oil to a boil in a saucepan. While stirring slowly in one direction to get the soup moving, pour the beaten egg into the soup in a slow but steady stream. Gently stir in the peas. Ladle into serving bowls; sprinkle with green onion to serve."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"71\nCalories\n\n\n4g \nFat\n\n\n3g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699641284-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nK-p1Ab2gSFUwzWb2ZqVf2T2GB0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3860740-50f63b79af0943a3a319a739f83bb6ca.jpg"
@@ -1502,59 +1763,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/219780/chinese-glass-noodle-soup/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Chinese Glass Noodle Soup</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ounces uncooked bean threads (cellophane noodles)\n\n\n3 (14.5 ounce) cans chicken broth\n\n\n1 large clove garlic, minced\n\n\n2 tablespoons thin strips fresh ginger root\n\n\n4  2-inch pieces fresh lemongrass, minced\n\n\n2  skinless, boneless chicken breast halves, cut into 1/2-inch strips\n\n\n6  large shrimp, peeled and deveined\n\n\n2 tablespoons lime juice\n\n\n2 tablespoons fish sauce\n\n\n1  jalapeno pepper, cut into 8 thin slices\n\n\n¼ cup chopped fresh cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ounces uncooked bean threads (cellophane noodles)\n\n\n3 (14.5 ounce) cans chicken broth\n\n\n1 large clove garlic, minced\n\n\n2 tablespoons thin strips fresh ginger root\n\n\n4  2-inch pieces fresh lemongrass, minced\n\n\n2  skinless, boneless chicken breast halves, cut into 1/2-inch strips\n\n\n6  large shrimp, peeled and deveined\n\n\n2 tablespoons lime juice\n\n\n2 tablespoons fish sauce\n\n\n1  jalapeno pepper, cut into 8 thin slices\n\n\n¼ cup chopped fresh cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Soak the bean threads in a large bowl of hot water until soft, about 15 minutes; drain and cut into bite-size lengths. Divide the noodles into 4 bowls."},{"recipe_directions":"Bring the chicken broth, garlic, ginger, and lemongrass to a boil in a large saucepan; reduce heat to medium-low and cook the mixture at a simmer until fragrant, about 15 minutes. Add the chicken and shrimp to the soup; simmer until the chicken pieces are cooked through, 3 to 5 minutes. Stir the lime juice and fish sauce through the soup. Ladle the soup over the noodles; top with jalapeno pepper slices and cilantro to serve."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Seafood"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"166\nCalories\n\n\n2g \nFat\n\n\n17g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699641291-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nCExQ2wPZUD5ZShUBrsIBCAEfFA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/5476778-fce45c70469741718e090276abd451be.jpg"
@@ -1567,59 +1824,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13125/chinese-sizzling-rice-soup/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Chinese Sizzling Rice Soup</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 ounces baby shrimp\n\n\n3 ounces skinless, boneless chicken pieces cut into chunks\n\n\n1  egg\n\n\n4 tablespoons cornstarch\n\n\n4 cups vegetable oil for frying\n\n\n3 cups chicken broth\n\n\n1 ounce mushrooms, chopped\n\n\n2 tablespoons chopped water chestnuts\n\n\n⅛ cup diced bamboo shoots\n\n\n⅓ cup fresh green beans, cut into 1 inch pieces\n\n\n½ teaspoon salt\n\n\n1 tablespoon sherry\n\n\n⅔ cup uncooked white rice"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 ounces baby shrimp\n\n\n3 ounces skinless, boneless chicken pieces cut into chunks\n\n\n1  egg\n\n\n4 tablespoons cornstarch\n\n\n4 cups vegetable oil for frying\n\n\n3 cups chicken broth\n\n\n1 ounce mushrooms, chopped\n\n\n2 tablespoons chopped water chestnuts\n\n\n⅛ cup diced bamboo shoots\n\n\n⅓ cup fresh green beans, cut into 1 inch pieces\n\n\n½ teaspoon salt\n\n\n1 tablespoon sherry\n\n\n⅔ cup uncooked white rice'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix together the shrimp, chicken, egg, and cornstarch."},{"recipe_directions":"Heat 3 cups of the oil in wok. When it is hot, add shrimp and chicken mixture. Cook for 1/2 minute and drain."},{"recipe_directions":"Place above mixture in pot with the broth, mushroom, water chestnuts, bamboo shoots, and green beans. Bring to a boil. Add salt and sherry. Return to a boil. Reduce heat and allow to simmer."},{"recipe_directions":"Meanwhile, heat the remaining 1 cup of oil until it is hot. Add rice and brown quickly. Drain and add to soup. Serve and enjoy!"},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount may vary depending on cook time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"295\nCalories\n\n\n17g \nFat\n\n\n24g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699641298-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/asGIwalA53XaLhH-lmsda5q9gCc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/image-268-69f45492e554473ab4c16f417c38d2d8.jpg"
@@ -1633,59 +1886,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/283133/chef-johns-hot-and-sour-soup/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Chef John's Hot and Sour Soup</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ ounce dried shiitake mushrooms\n\n\n2 tablespoons soy sauce, or more to taste\n\n\n¼ cup seasoned rice vinegar\n\n\n1 teaspoon ground white pepper, or to taste\n\n\n¼ teaspoon sesame oil\n\n\n3 tablespoons cornstarch, or as needed\n\n\n3 tablespoons water, or as needed\n\n\n2 teaspoons vegetable oil\n\n\n1 teaspoon minced fresh ginger root\n\n\n¼ cup sliced green onions\n\n\n4 cups chicken broth\n\n\n¼ cup grated carrot\n\n\n2 tablespoons thinly sliced red bell pepper\n\n\n½ cup bamboo shoots\n\n\n1 cup cubed tofu\n\n\n2 large eggs, beaten"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ ounce dried shiitake mushrooms\n\n\n2 tablespoons soy sauce, or more to taste\n\n\n¼ cup seasoned rice vinegar\n\n\n1 teaspoon ground white pepper, or to taste\n\n\n¼ teaspoon sesame oil\n\n\n3 tablespoons cornstarch, or as needed\n\n\n3 tablespoons water, or as needed\n\n\n2 teaspoons vegetable oil\n\n\n1 teaspoon minced fresh ginger root\n\n\n¼ cup sliced green onions\n\n\n4 cups chicken broth\n\n\n¼ cup grated carrot\n\n\n2 tablespoons thinly sliced red bell pepper\n\n\n½ cup bamboo shoots\n\n\n1 cup cubed tofu\n\n\n2 large eggs, beaten'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"I was going to say this fast and easy-to-make hot and sour soup is \"better than take-out.\" But, in fairness, I have no idea how good your friendly neighborhood Chinese restaurant is. So instead of insulting restaurateurs I've never met, I'll just say that in my experience, this soup is way better than the typical offering."},{"recipe_directions":"What all hot and sour soups have in common, besides being hot and sour, is their appetite-stimulating addictiveness. Once the spoon hits the bowl, it generally doesn't stop moving until the last drop has been consumed. I've never been a huge fan of soups as an appetizer, since they tend to fill me up, but that's not a problem for this soup. You actually get hungrier with each spoonful."},{"recipe_directions":"Feel free to add almost anything else to the ingredient list, as I can't think of a better catch-all for using up forgotten vegetables from the fridge. Adding some pork or little fun-sized meatballs would take it from appetizer to a fantastic meal. But no matter what additions you make, one thing that should not be omitted is the white pepper. It really does magical things here. I'd love to explain them in detail, but I can't. It just does things, and to fully understand what those things are, you're going to have to whip up a batch. Which I hope you do very soon. Enjoy!"},{"recipe_directions":"For more Chef John, be sure to subscribe to Food Wishes on YouTube! Click the \"Join\" button there to get Chef John's bonus video footage and behind-the-scenes pictures, live chats, and other Food Wishes member exclusives."},{"recipe_directions":"Soak dried shiitake mushrooms in hot water, stirring occasionally, until soft, 15 to 20 minutes. Drain well and slice into thin strips."},{"recipe_directions":"Whisk soy sauce, vinegar, ground white pepper, and sesame oil together in a small bowl for hot and sour mixture; set aside until needed."},{"recipe_directions":"Whisk cornstarch and water together in another small bowl for slurry; set aside until needed."},{"recipe_directions":"Heat vegetable oil in a saucepan over medium-high heat. Add ginger, sliced green onions, and shiitake mushrooms. Cook, stirring, for about 2 minutes. Pour in chicken broth and bring up to a simmer. Reduce heat to medium and simmer for 5 minutes."},{"recipe_directions":"Stir in carrot, red pepper, bamboo shoots, tofu, and the hot and sour mixture. Let simmer for 5 minutes."},{"recipe_directions":"Raise heat to medium-high and bring to a boil. Stir the soup slowly with a spoon while transferring in the beaten eggs in a steady stream to create thin ribbons. Keep stirring until the soup comes back to a boil. Reduce heat to medium."},{"recipe_directions":"Stir the cornstarch slurry to make sure it's well blended, then slowly drizzle it into the soup while stirring constantly. Soup should thicken up within 1 to 2 minutes. Turn off heat, taste for seasoning, and serve."},{"recipe_directions":"You can definitely use fresh shiitake mushrooms instead of dried, but dried will give the soup a better flavor. Cold water also works to soften the dried mushrooms, it just takes longer. The amount listed for mushrooms (3/4 ounce) should be about 6 mushrooms."},{"recipe_directions":"Use soft tofu for this. Use Chinese black vinegar instead of seasoned rice vinegar if you can find it. You can use a hot red pepper instead of a sweet one."},{"recipe_directions":"This will work with a black pepper or cayenne instead of white pepper, but it's just not going to have the same flavor."},{"recipe_directions":"Feel free to customize this--add any other thinly sliced vegetables you like when you add the tofu and other veggies."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"},{"recipe_tags":"Soups and Stews"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"193\nCalories\n\n\n9g \nFat\n\n\n19g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699641306-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/iiPdtIzHQxEsJwYnAjRX-nq2CGI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/973034-d7fdf3f985e14f07a041920aff413cab.jpg"
@@ -1698,59 +1947,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/231306/pork-wonton-soup/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Pork Wonton Soup</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs 20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 bowls soup"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon rice wine\n\n\n½ teaspoon cornstarch\n\n\n¾ pound ground pork\n\n\n2 tablespoons finely chopped green onion (white and light green parts)\n\n\n1 tablespoon soy sauce\n\n\n1 teaspoon minced fresh ginger\n\n\n1 teaspoon sesame oil\n\n\n1 teaspoon white sugar\n\n\n  salt to taste\n\n\n25  wonton wrappers\n\n\n1  egg, beaten\n\n\n3 heads  bok choy, sliced\n\n\n10  sugar snap peas, sliced\n\n\n1  carrot, thinly sliced\n\n\n2 tablespoons finely chopped green onion (white and light green parts)\n\n\n2 cups chicken broth\n\n\n1 cup water\n\n\n¼ cup finely chopped green onion (white and light green parts)"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon rice wine\n\n\n½ teaspoon cornstarch\n\n\n¾ pound ground pork\n\n\n2 tablespoons finely chopped green onion (white and light green parts)\n\n\n1 tablespoon soy sauce\n\n\n1 teaspoon minced fresh ginger\n\n\n1 teaspoon sesame oil\n\n\n1 teaspoon white sugar\n\n\n  salt to taste\n\n\n25  wonton wrappers\n\n\n1  egg, beaten\n\n\n3 heads  bok choy, sliced\n\n\n10  sugar snap peas, sliced\n\n\n1  carrot, thinly sliced\n\n\n2 tablespoons finely chopped green onion (white and light green parts)\n\n\n2 cups chicken broth\n\n\n1 cup water\n\n\n¼ cup finely chopped green onion (white and light green parts)'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk rice wine and cornstarch together in large bowl. Add ground pork, 2 tablespoons green onion, soy sauce, ginger, sesame oil, and sugar; stir until well combined and paste-like, about 10 minutes. Cover and refrigerate for 1 hour."},{"recipe_directions":"Place about 1 tablespoon pork mixture in the middle of a wonton wrapper. Brush edges with beaten egg and pinch edges to seal, creating a small pouch. Repeat with remaining wonton wrappers and pork mixture. Refrigerate until ready to use."},{"recipe_directions":"Place a steamer insert into a saucepan and fill with water to just below the bottom of the steamer. Bring water to a boil. Add bok choy, snap peas, carrot, and 2 tablespoons green onion, cover, and steam until tender, 2 to 6 minutes. Remove and distribute evenly among 4 soup bowls."},{"recipe_directions":"Place wontons in steamer basket and steam until pork is no longer pink inside, about 10 minutes. Remove and place in soup bowls alongside vegetables."},{"recipe_directions":"Heat chicken broth and water in a saucepan until hot, 5 to 7 minutes. Pour hot broth mixture evenly into soup bowls atop vegetables and wontons. Sprinkle 1/4 cup chopped green onion evenly over each bowl."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"513\nCalories\n\n\n16g \nFat\n\n\n58g \nCarbs\n\n\n32g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699641312-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/aHEHSzAJL5NNGQWJOdrc2ECKWwY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3423584-88bb1d7ddc034419b8486057976a1e82.jpg"
@@ -1763,59 +2008,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13185/chinese-spicy-hot-and-sour-soup/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Chinese Spicy Hot And Sour Soup</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5  dried wood ear mushrooms\n\n\n4  dried shiitake mushrooms\n\n\n8  dried tiger lily buds\n\n\n4 cups chicken stock\n\n\n⅓ cup diced bamboo shoots\n\n\n⅓ cup lean ground pork\n\n\n1 teaspoon soy sauce\n\n\n½ teaspoon white sugar\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground white pepper\n\n\n2 tablespoons red wine vinegar\n\n\n2 tablespoons cornstarch\n\n\n3 tablespoons water\n\n\n½ (16 ounce) package firm tofu, cubed\n\n\n1  egg, lightly beaten\n\n\n1 teaspoon sesame oil\n\n\n2 tablespoons thinly sliced green onion"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5  dried wood ear mushrooms\n\n\n4  dried shiitake mushrooms\n\n\n8  dried tiger lily buds\n\n\n4 cups chicken stock\n\n\n⅓ cup diced bamboo shoots\n\n\n⅓ cup lean ground pork\n\n\n1 teaspoon soy sauce\n\n\n½ teaspoon white sugar\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground white pepper\n\n\n2 tablespoons red wine vinegar\n\n\n2 tablespoons cornstarch\n\n\n3 tablespoons water\n\n\n½ (16 ounce) package firm tofu, cubed\n\n\n1  egg, lightly beaten\n\n\n1 teaspoon sesame oil\n\n\n2 tablespoons thinly sliced green onion'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Soak the dried mushrooms and tiger lily buds in warm water for 20 minutes. After trimming off any tough stems, slice the mushrooms. With the fingers, shred the tiger lily stems."},{"recipe_directions":"Place the mushrooms, tiger lily buds, stock, bamboo shoots, and shredded pork into a saucepan. Bring to a boil, and simmer for 10 minutes."},{"recipe_directions":"Stir in soy sauce, sugar, salt, white pepper, and vinegar. Combine cornstarch with 3 tablespoons water. Add a little of the hot soup to the cornstarch, and then return all to the pan. Heat to boiling, stirring. Add the bean curd, and cook 1 to 2 minutes."},{"recipe_directions":"Just before serving, turn off the heat. Stir the egg in gradually. Mix in sesame oil. Sprinkle each serving with scallions."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"116\nCalories\n\n\n6g \nFat\n\n\n9g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699641318-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SmOAu0q1TNf0fph0jl6OzqLp-As=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/666788-2c84d59f69d24c3493f9cb5ce2b8ad6d.jpg"
@@ -1828,59 +2069,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/135367/chinese-lions-head-soup/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Chinese Lion's Head Soup</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound ground pork\n\n\n1  egg\n\n\n1 tablespoon cornstarch\n\n\n2 teaspoons sesame oil\n\n\n1 tablespoon minced fresh ginger root\n\n\n¼ teaspoon monosodium glutamate (MSG) (Optional)\n\n\n1 teaspoon salt\n\n\n2  green onions, chopped and divided\n\n\n1 tablespoon vegetable oil\n\n\n1 head napa cabbage, cored and cut into chunks\n\n\n2 cups low-sodium chicken broth\n\n\n2 cups water, or as needed\n\n\n1 tablespoon soy sauce\n\n\n2 teaspoons sesame oil"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound ground pork\n\n\n1  egg\n\n\n1 tablespoon cornstarch\n\n\n2 teaspoons sesame oil\n\n\n1 tablespoon minced fresh ginger root\n\n\n¼ teaspoon monosodium glutamate (MSG) (Optional)\n\n\n1 teaspoon salt\n\n\n2  green onions, chopped and divided\n\n\n1 tablespoon vegetable oil\n\n\n1 head napa cabbage, cored and cut into chunks\n\n\n2 cups low-sodium chicken broth\n\n\n2 cups water, or as needed\n\n\n1 tablespoon soy sauce\n\n\n2 teaspoons sesame oil'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix the ground pork, egg, cornstarch, 2 teaspoons of sesame oil, ginger, monosodium glutamate, salt, and half of the chopped green onions together in a bowl. Use your hands to mix until the ingredients are evenly distributed. Set aside."},{"recipe_directions":"Heat the vegetable oil in a wok or large skillet over high heat. When the oil is hot, fry the napa cabbage, stirring constantly, until cabbage begins to wilt, 2 to 3 minutes. Pour in the chicken broth, water, and soy sauce. Bring to a boil, then lower the heat to medium."},{"recipe_directions":"Use a spoon to form the meat mixture into 1 inch balls. Drop them into the boiling soup. When the last ball has been added, cover with a lid and simmer for 10 minutes. Taste, and adjust salt before serving. Garnish with remaining green onions and a drizzle of sesame oil."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"431\nCalories\n\n\n34g \nFat\n\n\n7g \nCarbs\n\n\n24g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699641324-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/AjIOHvpUV0oWciQyJ3p4i4kqyGU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/45515-restaurant-style-egg-drop-soup-ddmfs-Beauty-3x4-1-48023a872e31418a9aff26853fb98392.jpg"
@@ -1894,59 +2131,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/45515/restaurant-style-egg-drop-soup/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Restaurant Style Egg Drop Soup</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups chicken broth, divided\n\n\n2 tablespoons chopped fresh chives\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon ground ginger\n\n\n1 ½ tablespoons cornstarch\n\n\n2  eggs\n\n\n1  egg yolk"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups chicken broth, divided\n\n\n2 tablespoons chopped fresh chives\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon ground ginger\n\n\n1 ½ tablespoons cornstarch\n\n\n2  eggs\n\n\n1  egg yolk'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Reserve 3/4 cup of chicken broth, and pour the rest into a large saucepan. Stir in chives, salt, and ginger; bring to a rolling boil. Stir reserved 3/4 cup of broth and cornstarch until smooth. Set aside."},{"recipe_directions":"Whisk eggs and egg yolk together in a small bowl with a fork. Using a fork, drizzle eggs, a little at a time, into boiling broth. Eggs will cook immediately."},{"recipe_directions":"Stir in cornstarch mixture gradually until soup reaches desired consistency."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"76\nCalories\n\n\n4g \nFat\n\n\n4g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699641330-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1900/world-cuisine/asian/chinese/soups-and-stews/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CTiwVikKGLS0l_VQFvP2xv-xbyc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5256168-dc352e6a1e234e7bb2e391f02f11ffb1.jpg"
@@ -1959,42 +2192,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13199/wonton-soup/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Wonton Soup</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n25 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound boneless pork loin, coarsely chopped\n\n\n2 ounces peeled shrimp, finely chopped\n\n\n1 tablespoon Chinese rice wine\n\n\n1 tablespoon light soy sauce\n\n\n1 teaspoon brown sugar\n\n\n1 teaspoon finely chopped green onions\n\n\n1 teaspoon chopped fresh ginger root\n\n\n24  (3.5 inch square) wonton wrappers"},{"recipe_ingredients":"3 cups chicken stock\n\n\n2 tablespoons finely chopped green onions"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound boneless pork loin, coarsely chopped\n\n\n2 ounces peeled shrimp, finely chopped\n\n\n1 tablespoon Chinese rice wine\n\n\n1 tablespoon light soy sauce\n\n\n1 teaspoon brown sugar\n\n\n1 teaspoon finely chopped green onions\n\n\n1 teaspoon chopped fresh ginger root\n\n\n24  (3.5 inch square) wonton wrappers'}, {'recipe_ingredients': '3 cups chicken stock\n\n\n2 tablespoons finely chopped green onions'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make the wontons: Mix pork, shrimp, rice wine, soy sauce, brown sugar, green onions, and ginger together in a large bowl until well combined. Let stand for 25 to 30 minutes."},{"recipe_directions":"Spoon about 1 teaspoon filling onto the center of a wonton wrapper. Moisten all four wrapper edges with water and fold over filling to make a triangle; press the edges firmly to seal. Bring left and right corners together above filling; overlap the tips of these corners, moisten with water, and press together to seal. Repeat until all wrappers have been filled and sealed."},{"recipe_directions":"Make the soup: Bring chicken stock to a rolling boil in a pot. Gently drop in wontons and cook for 5 minutes."},{"recipe_directions":"Ladle into bowls and garnish with green onions."},{"recipe_directions":"Heat 2 to 3 cups oil in a wok until hot. Deep-fry wontons in batches in hot oil until golden, 2 to 3 minutes per side. Drain on a paper towel-lined plate. Serve with duck sauce (plum sauce) or any dipping sauce."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"195\nCalories\n\n\n6g \nFat\n\n\n21g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>